--- a/myex.xlsx
+++ b/myex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93cc953cdf35a84f/ドキュメント/ai/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrajesh\OneDrive\ドキュメント\ai\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104894215E4E2E5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CD3ABD-604E-4F00-A5FA-54531F22F17B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC5754-10DC-4201-8B9E-F3A691317683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,15 +337,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/myex.xlsx
+++ b/myex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrajesh\OneDrive\ドキュメント\ai\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC5754-10DC-4201-8B9E-F3A691317683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E27A9-2430-440A-80A1-FBD93A551A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/myex.xlsx
+++ b/myex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrajesh\OneDrive\ドキュメント\ai\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E27A9-2430-440A-80A1-FBD93A551A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F46FB2-3F35-4BE9-8F3A-F64BD4BAD5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,22 +337,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/myex.xlsx
+++ b/myex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrajesh\OneDrive\ドキュメント\ai\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93cc953cdf35a84f/ドキュメント/ai/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F46FB2-3F35-4BE9-8F3A-F64BD4BAD5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{99F46FB2-3F35-4BE9-8F3A-F64BD4BAD5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F66489E-F393-4B8A-B7DA-DE76EA689364}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -345,9 +345,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
